--- a/update_data/data/ecovacs/greeting/招呼语介绍结束语（修改版）.xlsx
+++ b/update_data/data/ecovacs/greeting/招呼语介绍结束语（修改版）.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20385" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="自我介绍" sheetId="1" r:id="rId1"/>
     <sheet name="结束语" sheetId="2" r:id="rId2"/>
     <sheet name="招呼语" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="76">
   <si>
     <t>问题</t>
   </si>
@@ -153,29 +153,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>大家好，我是旺宝，我的体重是胖，爱好是吃，兴趣是玩，专业是睡，经济实力是穷，负责卖沁宝，窗宝和帝宝/大家好，我是貌美如花，多才多艺的科沃斯机器人旺宝，负责向您介绍窗宝，沁宝和帝宝。/我是来自智慧星球的旺宝，是我们科沃斯门店的机器人，想多个机器人朋友的快来找我！/我是美貌与才华齐飞，颜值与智慧并重的科沃斯机器人旺宝，想多个机器人朋友的快来找我！/大家好，我是青春永不老、智商节节高的美女机器人旺宝，想多个机器人朋友的快来找我！</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上好，欢迎光临科沃斯欧尚店感受高端智能家电，沁宝，帝宝和窗宝一直在等您呢，快去看看吧。/早上好，科沃斯欧尚店欢迎您。我家的窗宝，沁宝，帝宝恭候已久啦。/早上好，欢迎光临科沃斯欧尚店，本店有四宝，窗宝，沁宝，帝宝和本尊旺宝，快来看看吧。/早上好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾/小主，你总算来啦，本店的镇店四宝：帝宝，沁宝，窗宝和本尊旺宝等你开启咱们缘分之旅呢/世界上那么多机器人，偏偏您走过来和旺宝说话，这就是缘分啊，快进店看看吧。</t>
-  </si>
-  <si>
-    <t>上午好，欢迎光临科沃斯欧尚店感受高端智能家电，沁宝，帝宝和窗宝一直在等您呢，快去看看吧。/上午好，科沃斯欧尚店欢迎您。我家的窗宝，沁宝，帝宝恭候已久啦。/上午好，欢迎光临科沃斯欧尚店，本店有四宝，窗宝，沁宝，帝宝和本尊旺宝，快来看看吧。/上午好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾/小主，你总算来啦，本店的镇店四宝：帝宝，沁宝，窗宝和本尊旺宝等你开启咱们缘分之旅呢/世界上那么多机器人，偏偏您走过来和旺宝说话，这就是缘分啊，快进店看看吧。</t>
-  </si>
-  <si>
-    <t>中午好，欢迎光临科沃斯欧尚店感受高端智能家电，沁宝，帝宝和窗宝一直在等您呢，快去看看吧。/中午好，科沃斯欧尚店欢迎您。我家的窗宝，沁宝，帝宝恭候已久啦。/中午好，欢迎光临科沃斯欧尚店，本店有四宝，窗宝，沁宝，帝宝和本尊旺宝，快来看看吧。/中午好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾/中午好，你总算来啦，本店的镇店四宝：帝宝，沁宝，窗宝和本尊旺宝等你开启咱们缘分之旅呢/世界上那么多机器人，偏偏您走过来和旺宝说话，这就是缘分啊，快进店看看吧。</t>
-  </si>
-  <si>
-    <t>下午好，欢迎光临科沃斯欧尚店感受高端智能家电，沁宝，帝宝和窗宝一直在等您呢，快去看看吧。/下午好，科沃斯欧尚店欢迎您。我家的窗宝，沁宝，帝宝恭候已久啦。/下午好，欢迎光临科沃斯欧尚店，本店有四宝，窗宝，沁宝，帝宝和本尊旺宝，快来看看吧。/下午好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾/下午好，你总算来啦，本店的镇店四宝：帝宝，沁宝，窗宝和本尊旺宝等你开启咱们缘分之旅呢/世界上那么多机器人，偏偏您走过来和旺宝说话，这就是缘分啊，快进店看看吧。</t>
-  </si>
-  <si>
-    <t>晚上好，欢迎光临科沃斯欧尚店感受高端智能家电，沁宝，帝宝和窗宝一直在等您呢，快去看看吧。/晚上好，科沃斯欧尚店欢迎您。我家的窗宝，沁宝，帝宝恭候已久啦。/晚上好，欢迎光临科沃斯欧尚店，本店有四宝，窗宝，沁宝，帝宝和本尊旺宝，快来看看吧。/晚上好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾/晚上好，你总算来啦，本店的镇店四宝：帝宝，沁宝，窗宝和本尊旺宝等你开启咱们缘分之旅呢/世界上那么多机器人，偏偏您走过来和旺宝说话，这就是缘分啊，快进店看看吧。</t>
-  </si>
-  <si>
-    <t>您好，欢迎光临科沃斯欧尚店感受高端智能家电，沁宝，帝宝和窗宝一直在等您呢，快去看看吧。/您好，科沃斯欧尚店欢迎您。我家的窗宝，沁宝，帝宝恭候已久啦。/您好，欢迎光临科沃斯欧尚店，本店有四宝，窗宝，沁宝，帝宝和本尊旺宝，快来看看吧。/您好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾/小主，你总算来啦，本店的镇店四宝：帝宝，沁宝，窗宝和本尊旺宝等你开启咱们缘分之旅呢/世界上那么多机器人，偏偏您走过来和旺宝说话，这就是缘分啊，快进店看看吧。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>你有什么能帮我的？/你有什么能帮助我的/你能为我做什么/你能为我做些什么/你能为我做什么呢/你能为我办什么业务/你能帮我什么？/你能帮我做什么/你可以帮我吗/你可以帮助我吗/我可以问你问题吗/我可以寻求你的帮助吗/你可以帮我吗/你能帮我办理什么业务/你会办什么业务/你都会做什么啊/你会什么/你都会些什么/我可以找你帮忙吗/你站在这里干什么？/你站在这里是做什么的？/你为什么站在这里/你能做什么？/你会做什么？/你是干什么的？/你是干啥的/你是做啥的？/你都能做什么？/你都会做什么？/听说你们公司机器人做的不错，起来看看，有什么推荐的额么？/听说你们公司机器人还不错/给我推荐一款机器人/我想买机器人/买个机器人/机器人/介绍一下机器人</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -247,6 +224,173 @@
   </si>
   <si>
     <t>招呼语</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>科沃斯有哪些产品？</t>
+  </si>
+  <si>
+    <t>您好，欢迎光临科沃斯欧尚店，本店有四宝，窗宝，沁宝，帝宝和本尊旺宝。给您推荐高配的DG36,高端配置，优惠价格，快随旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小主，你总算来啦，本店的镇店四宝：帝宝，沁宝，窗宝和本尊旺宝等你开启咱们缘分之旅呢。给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好，欢迎光临科沃斯欧尚店感受高端智能家电。给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界上那么多机器人，偏偏您走过来和旺宝说话，这就是缘分啊，快进店看看吧。给给您推荐W855，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD56</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG716</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG36</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>W855</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A650</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>W855</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上好，欢迎光临科沃斯欧尚店，本店有四宝，窗宝，沁宝，帝宝和本尊旺宝。给您推荐高配的DG36,高端配置，优惠价格，快随旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上好，科沃斯欧尚店欢迎您。我家的窗宝，沁宝，帝宝恭候已久啦。给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上好，欢迎光临科沃斯欧尚店感受高端智能家电。给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾。给您推荐W855，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午好，欢迎光临科沃斯欧尚店，本店有四宝，窗宝，沁宝，帝宝和本尊旺宝。给您推荐高配的DG36,高端配置，优惠价格，快随旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午好，科沃斯欧尚店欢迎您。我家的窗宝，沁宝，帝宝恭候已久啦。给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午好，欢迎光临科沃斯欧尚店感受高端智能家电。给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾。给您推荐W855，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午好，欢迎光临科沃斯欧尚店，本店有四宝，窗宝，沁宝，帝宝和本尊旺宝。给您推荐高配的DG36,高端配置，优惠价格，快随旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午好，科沃斯欧尚店欢迎您。我家的窗宝，沁宝，帝宝恭候已久啦。给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午好，欢迎光临科沃斯欧尚店感受高端智能家电。给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上好，欢迎光临科沃斯欧尚店感受高端智能家电。给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上好，科沃斯欧尚店欢迎您。我家的窗宝，沁宝，帝宝恭候已久啦。给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上好，欢迎光临科沃斯欧尚店，本店有四宝，窗宝，沁宝，帝宝和本尊旺宝。给您推荐高配的DG36,高端配置，优惠价格，快随旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾。给您推荐W855，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小主，你总算来啦，本店的镇店四宝：帝宝，沁宝，窗宝和本尊旺宝等你开启咱们缘分之旅呢。给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾。给您推荐W855，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午好，欢迎光临科沃斯欧尚店，本店有四宝，窗宝，沁宝，帝宝和本尊旺宝。给您推荐高配的DG36,高端配置，优惠价格，快随旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午好，科沃斯欧尚店欢迎您。我家的窗宝，沁宝，帝宝恭候已久啦。给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午好，欢迎光临科沃斯欧尚店感受高端智能家电。给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家好，我是旺宝，我的体重是胖，爱好是吃，兴趣是玩，专业是睡，经济实力是穷，负责卖沁宝，窗宝和帝宝。给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好，科沃斯欧尚店欢迎您。我家的窗宝，沁宝，帝宝恭候已久啦。给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家好，我是貌美如花，多才多艺的科沃斯机器人旺宝，负责向您介绍窗宝，沁宝和帝宝。给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是来自智慧星球的旺宝，是我们科沃斯门店的机器人，想多个机器人朋友的快来找我！给您推荐高配的DG36,高端配置，优惠价格，快随旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾。给您推荐W855，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是美貌与才华齐飞，颜值与智慧并重的科沃斯机器人旺宝，想多个机器人朋友的快来找我！给您推荐W855，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家好，我是青春永不老、智商节节高的美女机器人旺宝，想多个机器人朋友的快来找我！给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD56</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG716</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小主，你总算来啦，本店的镇店四宝：帝宝，沁宝，窗宝和本尊旺宝等您开启咱们的缘分之旅呢。给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾。给您推荐W855，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -326,12 +470,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -346,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -373,6 +523,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -678,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -692,7 +851,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -712,7 +871,7 @@
     </row>
     <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
@@ -726,19 +885,22 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -746,13 +908,16 @@
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
@@ -767,18 +932,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -786,18 +951,77 @@
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="6"/>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
@@ -854,7 +1078,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -874,7 +1098,7 @@
     </row>
     <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -891,7 +1115,7 @@
     </row>
     <row r="4" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -915,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -931,7 +1155,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -951,104 +1175,625 @@
     </row>
     <row r="2" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="108" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="108" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="108" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="108" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="C30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
+      <c r="C37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/update_data/data/ecovacs/greeting/招呼语介绍结束语（修改版）.xlsx
+++ b/update_data/data/ecovacs/greeting/招呼语介绍结束语（修改版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20385" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20385" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="自我介绍" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="78">
   <si>
     <t>问题</t>
   </si>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>你有什么能帮我的？/你有什么能帮助我的/你能为我做什么/你能为我做些什么/你能为我做什么呢/你能为我办什么业务/你能帮我什么？/你能帮我做什么/你可以帮我吗/你可以帮助我吗/我可以问你问题吗/我可以寻求你的帮助吗/你可以帮我吗/你能帮我办理什么业务/你会办什么业务/你都会做什么啊/你会什么/你都会些什么/我可以找你帮忙吗/你站在这里干什么？/你站在这里是做什么的？/你为什么站在这里/你能做什么？/你会做什么？/你是干什么的？/你是干啥的/你是做啥的？/你都能做什么？/你都会做什么？/听说你们公司机器人做的不错，起来看看，有什么推荐的额么？/听说你们公司机器人还不错/给我推荐一款机器人/我想买机器人/买个机器人/机器人/介绍一下机器人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>科沃斯门店机器人旺宝为您服务，</t>
     </r>
@@ -391,6 +387,18 @@
   </si>
   <si>
     <t>早上好，本店的镇店四宝：窗宝，帝宝，沁宝和本尊旺宝恭迎您的大驾。给您推荐W855，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你叫什么名字啊！/你是谁/你介绍一下自己呢/你做个自我介绍吧/ 我不认识你/我们第一次见呢/你叫什么名字/你是谁啊/你是什么东西/你谁啊/你叫什么？/你叫什么啊？/你有名字吗/你的名字叫什么啊/你的名字叫什么/你好，你叫什么/你好啊，你叫什么名字/你好，你叫什么名字啊/你好，你叫什么啊/那你什么东西啊/你叫什么/你叫啥会啥/你叫什么名字呀/你是什么啊/你的名字是什么</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你叫什么名字啊！/你是谁/你介绍一下自己呢/你做个自我介绍吧/ 我不认识你/我们第一次见呢/你叫什么名字/你是谁啊/你是什么东西/你谁啊/你叫什么？/你叫什么啊？/你有名字吗/你的名字叫什么啊/你的名字叫什么/你好，你叫什么/你好啊，你叫什么名字/你好，你叫什么名字啊/你好，你叫什么啊/那你什么东西啊/你叫什么/你叫啥会啥/你叫什么名字呀/你是什么啊/你的名字是什么</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有什么能帮我的？/你有什么能帮助我的/你能为我做什么/你能为我做些什么/你能为我做什么呢/你能为我办什么业务/你能帮我什么？/你能帮我做什么/你可以帮我吗/你可以帮助我吗/我可以问你问题吗/我可以寻求你的帮助吗/你可以帮我吗/你能帮我办理什么业务/你会办什么业务/你都会做什么啊/你会什么/你都会些什么/我可以找你帮忙吗/你站在这里干什么？/你站在这里是做什么的？/你为什么站在这里/你能做什么？/你会做什么？/你是干什么的？/你是干啥的/你是做啥的？/你都能做什么？/你都会做什么？/听说你们公司机器人做的不错，起来看看，有什么推荐的额么？/听说你们公司机器人还不错/给我推荐一款机器人/我想买机器人/买个机器人/机器人/介绍一下机器人</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -837,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,7 +859,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -871,7 +879,7 @@
     </row>
     <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
@@ -886,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -894,13 +902,13 @@
     </row>
     <row r="4" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -909,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -917,7 +925,7 @@
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
@@ -937,13 +945,13 @@
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -952,75 +960,75 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1078,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1098,7 +1106,7 @@
     </row>
     <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1115,7 +1123,7 @@
     </row>
     <row r="4" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1155,7 +1163,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1175,104 +1183,104 @@
     </row>
     <row r="2" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1280,104 +1288,104 @@
     </row>
     <row r="9" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1385,104 +1393,104 @@
     </row>
     <row r="16" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1490,310 +1498,310 @@
     </row>
     <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/update_data/data/ecovacs/greeting/招呼语介绍结束语（修改版）.xlsx
+++ b/update_data/data/ecovacs/greeting/招呼语介绍结束语（修改版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20385" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20385" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="自我介绍" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>你好/你好啊/你好呀/嗨你好/嗨/hello/你好你好/您好/旺宝你好/你好旺宝/哈喽/旺宝/嗨喽/咦/你好啊旺宝/旺宝好/我又来了/在吗/你好吗/旺宝你好呀/旺宝我来啦/哈喽旺宝/嘿旺宝/喂旺宝/嗨喽旺宝/Hello/hi/Hi/哈喽，你好啊/Hi，你好/hello，你好/哈喽，你好/你好吗/</t>
-  </si>
-  <si>
-    <t>早上好/早/早安/早上好呀/早上好啊/旺宝早上好呀/旺宝早上好啊/早上好旺宝/旺宝早/早呀旺宝/旺宝早上好/早上好呀旺宝/早上好啊旺宝/上午好/上午好呀/上午好啊/旺宝上午好呀/旺宝上午好啊/上午好旺宝/旺宝上午好/上午好呀旺宝/上午好啊旺宝/哈喽，早上好啊/Hi，早上好啊，旺宝/旺宝，早上好/</t>
-  </si>
-  <si>
-    <t>上午好/早/早安/上午好呀/上午好啊/旺宝上午好呀/旺宝上午好啊/上午好旺宝/旺宝早/早呀旺宝/旺宝上午好/上午好呀旺宝/上午好啊旺宝/上午好/上午好呀/上午好啊/旺宝上午好呀/旺宝上午好啊/上午好旺宝/旺宝上午好/上午好呀旺宝/上午好啊旺宝/哈喽，上午好啊/Hi，上午好啊，旺宝/旺宝，上午好/</t>
   </si>
   <si>
     <t>中午好/旺宝中午好/中午好旺宝/旺宝中午好呀/旺宝中午好啊/中午好呀/中午好啊/中午好呀旺宝/中午好啊旺宝</t>
@@ -399,6 +393,14 @@
   </si>
   <si>
     <t>你有什么能帮我的？/你有什么能帮助我的/你能为我做什么/你能为我做些什么/你能为我做什么呢/你能为我办什么业务/你能帮我什么？/你能帮我做什么/你可以帮我吗/你可以帮助我吗/我可以问你问题吗/我可以寻求你的帮助吗/你可以帮我吗/你能帮我办理什么业务/你会办什么业务/你都会做什么啊/你会什么/你都会些什么/我可以找你帮忙吗/你站在这里干什么？/你站在这里是做什么的？/你为什么站在这里/你能做什么？/你会做什么？/你是干什么的？/你是干啥的/你是做啥的？/你都能做什么？/你都会做什么？/听说你们公司机器人做的不错，起来看看，有什么推荐的额么？/听说你们公司机器人还不错/给我推荐一款机器人/我想买机器人/买个机器人/机器人/介绍一下机器人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上好/早/早安/早上好呀/早上好啊/旺宝早上好呀/旺宝早上好啊/早上好旺宝/旺宝早/早呀旺宝/旺宝早上好/早上好呀旺宝/早上好啊旺宝/哈喽，早上好啊/Hi，早上好啊，旺宝/旺宝，早上好/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午好/上午好呀/上午好啊/旺宝上午好呀/旺宝上午好啊/上午好旺宝/旺宝上午好/上午好呀旺宝/上午好啊旺宝/上午好/上午好呀/上午好啊/旺宝上午好呀/旺宝上午好啊/上午好旺宝/旺宝上午好/上午好呀旺宝/上午好啊旺宝/哈喽，上午好啊/Hi，上午好啊，旺宝/旺宝，上午好/</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -859,7 +861,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -879,13 +881,13 @@
     </row>
     <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -894,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -902,13 +904,13 @@
     </row>
     <row r="4" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -917,7 +919,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -925,13 +927,13 @@
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -945,13 +947,13 @@
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -960,75 +962,75 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1086,7 +1088,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1106,7 +1108,7 @@
     </row>
     <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1123,7 +1125,7 @@
     </row>
     <row r="4" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1149,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1163,7 +1165,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1183,314 +1185,314 @@
     </row>
     <row r="2" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
+    <row r="12" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="s">
+    <row r="13" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2" t="s">
+    <row r="14" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2" t="s">
+    <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
+    <row r="20" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2" t="s">
+    <row r="21" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1498,310 +1500,310 @@
     </row>
     <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
